--- a/data/case1/2/Q_device_1.xlsx
+++ b/data/case1/2/Q_device_1.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.013782099456859449</v>
+        <v>-0.073455891215853428</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.013959035833187652</v>
+        <v>-0.035570077501401828</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.041273204853452573</v>
+        <v>-0.021196047145030532</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.03743042654655044</v>
+        <v>-0.018663107503054836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.002715762835274191</v>
+        <v>-0.018873820250069225</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0026751030976956262</v>
+        <v>-0.042635614992158788</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0004134620086287439</v>
+        <v>-0.026203261072843525</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.00036397196115876016</v>
+        <v>-0.026189492896474129</v>
       </c>
     </row>
     <row r="5">
